--- a/graphs/STM32F/RSA/rsa.xlsx
+++ b/graphs/STM32F/RSA/rsa.xlsx
@@ -6,8 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RSA_data_ccm" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RSA_data_ram" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RSA_data_ccm CF_enc" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RSA_data_ccm CF_dec" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RSA_data_ccm CC_enc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RSA_data_ccm CC_dec" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RSA_data_ram CF_enc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RSA_data_ram CF_dec" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RSA_data_ram CC_enc" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="RSA_data_ram CC_dec" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,62 +468,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CF enc 24 </t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CF dec 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CC enc 24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CC dec 24</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CF enc 48</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CF dec 48</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CC enc 48</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CC dec 48</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CF enc 72</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CF dec 72</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>CC enc 72</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CC dec 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -531,37 +492,10 @@
         <v>12456.72349684679</v>
       </c>
       <c r="C2" t="n">
-        <v>12442.26004620208</v>
+        <v>21646.21706362124</v>
       </c>
       <c r="D2" t="n">
-        <v>11997.38240775568</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12019.51597505675</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21646.21706362124</v>
-      </c>
-      <c r="G2" t="n">
-        <v>22461.45822448558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21315.88514461074</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22149.03565173879</v>
-      </c>
-      <c r="J2" t="n">
         <v>29399.75823061618</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30252.25144832758</v>
-      </c>
-      <c r="L2" t="n">
-        <v>29355.73716017529</v>
-      </c>
-      <c r="M2" t="n">
-        <v>30616.97151087508</v>
       </c>
     </row>
     <row r="3">
@@ -574,37 +508,10 @@
         <v>0.01634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12694</v>
+        <v>0.009180000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01698</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.13224</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.009180000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.07084</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.00946</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.07198</v>
-      </c>
-      <c r="J3" t="n">
         <v>0.00722</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05558</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00718</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.05372</v>
       </c>
     </row>
     <row r="4">
@@ -620,58 +527,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(2116.14, 2243.08)</t>
+          <t>(3758.52, 3767.7)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(2438.4, 2455.38)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(2650.68, 2782.92)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(3758.52, 3767.7)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(3962.8, 4033.64)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(4228.88, 4238.34)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>(4433.52, 4505.5)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
           <t>(5481.04, 5488.26)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>(5683.5, 5739.08)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(5934.26, 5941.44)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>(6136.64, 6190.36)</t>
-        </is>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>671.6914443969727</v>
+      </c>
+      <c r="C5" t="n">
+        <v>655.7504997253419</v>
+      </c>
+      <c r="D5" t="n">
+        <v>700.4786396026611</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,62 +574,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CF enc 24 </t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>CF dec 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>CC enc 24</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>CC dec 24</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>CF enc 48</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>CF dec 48</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>CC enc 48</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>CC dec 48</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>CF enc 72</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>CF dec 72</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>CC enc 72</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>CC dec 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -762,40 +595,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12463.93815970715</v>
+        <v>12442.26004620208</v>
       </c>
       <c r="C2" t="n">
-        <v>12501.3550360822</v>
+        <v>22461.45822448558</v>
       </c>
       <c r="D2" t="n">
-        <v>11980.0951353897</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11997.36371039624</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22097.7737192522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>22094.45977036185</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21349.71254190821</v>
-      </c>
-      <c r="I2" t="n">
-        <v>21780.86528661321</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29421.95691560444</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30259.60305641437</v>
-      </c>
-      <c r="L2" t="n">
-        <v>29291.70550078071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>30817.45461222406</v>
+        <v>30252.25144832758</v>
       </c>
     </row>
     <row r="3">
@@ -805,40 +611,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0162</v>
+        <v>0.12694</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12676</v>
+        <v>0.07084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.13234</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00912</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.07092</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.00942</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.07188</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.00722</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05568</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00718</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.05378</v>
+        <v>0.05558</v>
       </c>
     </row>
     <row r="4">
@@ -849,63 +628,670 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>(2116.14, 2243.08)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3962.8, 4033.64)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5683.5, 5739.08)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5212.087617874145</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5250.860012054442</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5548.686447143555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11997.38240775568</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21315.88514461074</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29355.73716017529</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01698</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00946</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00718</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2438.4, 2455.38)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(4228.88, 4238.34)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5934.26, 5941.44)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>672.2613258361816</v>
+      </c>
+      <c r="C5" t="n">
+        <v>665.4393024444579</v>
+      </c>
+      <c r="D5" t="n">
+        <v>695.5548362731932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12019.51597505675</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22149.03565173879</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30616.97151087508</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.13224</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07198</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05372</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2650.68, 2782.92)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(4433.52, 4505.5)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(6136.64, 6190.36)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5245.220615386963</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5261.149034500122</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5427.65424156189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12463.93815970715</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22097.7737192522</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29421.95691560444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00912</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00722</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(1372.06, 1388.26)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>(3225.74, 3234.86)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(4948.48, 4955.7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>666.3221340179442</v>
+      </c>
+      <c r="C5" t="n">
+        <v>665.0545978546141</v>
+      </c>
+      <c r="D5" t="n">
+        <v>701.0075454711914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12501.3550360822</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22094.45977036185</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30259.60305641437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.12676</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07092</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05568</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(1583.62, 1710.38)</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3430.22, 3501.14)</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>(5151.0, 5206.68)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5229.416822433472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5170.898986816406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5560.020503997802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11980.0951353897</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21349.71254190821</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29291.70550078071</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00942</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00718</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(1905.7, 1922.6)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3696.4, 3705.82)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5401.94, 5409.12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>668.1299057006835</v>
+      </c>
+      <c r="C5" t="n">
+        <v>663.6771640777587</v>
+      </c>
+      <c r="D5" t="n">
+        <v>694.0376701354979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11997.36371039624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21780.86528661321</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30817.45461222406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.13234</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05378</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>(2117.92, 2250.26)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(3225.74, 3234.86)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(3430.22, 3501.14)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(3696.4, 3705.82)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>(3901.04, 3972.92)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>(4948.48, 4955.7)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>(5151.0, 5206.68)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(5401.94, 5409.12)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>(5604.26, 5658.04)</t>
         </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5239.512674331665</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5166.508369445801</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5469.296939849854</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/RSA/rsa.xlsx
+++ b/graphs/STM32F/RSA/rsa.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RSA_data_ccm CF_enc" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RSA_data_ccm CF_dec" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RSA_data_ccm CC_enc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="RSA_data_ccm CC_dec" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="RSA_data_ram CF_enc" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="RSA_data_ram CF_dec" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="RSA_data_ram CC_enc" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="RSA_data_ram CC_dec" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data_CCM code_FLASH_enc" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM code_FLASH_dec" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_CCM code_CCM_enc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_CCM code_CCM_dec" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_RAM code_FLASH_enc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="data_RAM code_FLASH_dec" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="data_RAM code_CCM_enc" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="data_RAM code_CCM_dec" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12456.72349684679</v>
+        <v>12457</v>
       </c>
       <c r="C2" t="n">
-        <v>21646.21706362124</v>
+        <v>21646</v>
       </c>
       <c r="D2" t="n">
-        <v>29399.75823061618</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="3">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.6914443969727</v>
+        <v>0.672</v>
       </c>
       <c r="C5" t="n">
-        <v>655.7504997253419</v>
+        <v>0.656</v>
       </c>
       <c r="D5" t="n">
-        <v>700.4786396026611</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12442.26004620208</v>
+        <v>12442</v>
       </c>
       <c r="C2" t="n">
-        <v>22461.45822448558</v>
+        <v>22461</v>
       </c>
       <c r="D2" t="n">
-        <v>30252.25144832758</v>
+        <v>30252</v>
       </c>
     </row>
     <row r="3">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5212.087617874145</v>
+        <v>5.212</v>
       </c>
       <c r="C5" t="n">
-        <v>5250.860012054442</v>
+        <v>5.251</v>
       </c>
       <c r="D5" t="n">
-        <v>5548.686447143555</v>
+        <v>5.549</v>
       </c>
     </row>
   </sheetData>
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11997.38240775568</v>
+        <v>11997</v>
       </c>
       <c r="C2" t="n">
-        <v>21315.88514461074</v>
+        <v>21316</v>
       </c>
       <c r="D2" t="n">
-        <v>29355.73716017529</v>
+        <v>29356</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>672.2613258361816</v>
+        <v>0.672</v>
       </c>
       <c r="C5" t="n">
-        <v>665.4393024444579</v>
+        <v>0.665</v>
       </c>
       <c r="D5" t="n">
-        <v>695.5548362731932</v>
+        <v>0.696</v>
       </c>
     </row>
   </sheetData>
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12019.51597505675</v>
+        <v>12020</v>
       </c>
       <c r="C2" t="n">
-        <v>22149.03565173879</v>
+        <v>22149</v>
       </c>
       <c r="D2" t="n">
-        <v>30616.97151087508</v>
+        <v>30617</v>
       </c>
     </row>
     <row r="3">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5245.220615386963</v>
+        <v>5.245</v>
       </c>
       <c r="C5" t="n">
-        <v>5261.149034500122</v>
+        <v>5.261</v>
       </c>
       <c r="D5" t="n">
-        <v>5427.65424156189</v>
+        <v>5.428</v>
       </c>
     </row>
   </sheetData>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12463.93815970715</v>
+        <v>12464</v>
       </c>
       <c r="C2" t="n">
-        <v>22097.7737192522</v>
+        <v>22098</v>
       </c>
       <c r="D2" t="n">
-        <v>29421.95691560444</v>
+        <v>29422</v>
       </c>
     </row>
     <row r="3">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>666.3221340179442</v>
+        <v>0.666</v>
       </c>
       <c r="C5" t="n">
-        <v>665.0545978546141</v>
+        <v>0.665</v>
       </c>
       <c r="D5" t="n">
-        <v>701.0075454711914</v>
+        <v>0.701</v>
       </c>
     </row>
   </sheetData>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12501.3550360822</v>
+        <v>12501</v>
       </c>
       <c r="C2" t="n">
-        <v>22094.45977036185</v>
+        <v>22094</v>
       </c>
       <c r="D2" t="n">
-        <v>30259.60305641437</v>
+        <v>30260</v>
       </c>
     </row>
     <row r="3">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5229.416822433472</v>
+        <v>5.229</v>
       </c>
       <c r="C5" t="n">
-        <v>5170.898986816406</v>
+        <v>5.171</v>
       </c>
       <c r="D5" t="n">
-        <v>5560.020503997802</v>
+        <v>5.56</v>
       </c>
     </row>
   </sheetData>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11980.0951353897</v>
+        <v>11980</v>
       </c>
       <c r="C2" t="n">
-        <v>21349.71254190821</v>
+        <v>21350</v>
       </c>
       <c r="D2" t="n">
-        <v>29291.70550078071</v>
+        <v>29292</v>
       </c>
     </row>
     <row r="3">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>668.1299057006835</v>
+        <v>0.668</v>
       </c>
       <c r="C5" t="n">
-        <v>663.6771640777587</v>
+        <v>0.664</v>
       </c>
       <c r="D5" t="n">
-        <v>694.0376701354979</v>
+        <v>0.694</v>
       </c>
     </row>
   </sheetData>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11997.36371039624</v>
+        <v>11997</v>
       </c>
       <c r="C2" t="n">
-        <v>21780.86528661321</v>
+        <v>21781</v>
       </c>
       <c r="D2" t="n">
-        <v>30817.45461222406</v>
+        <v>30817</v>
       </c>
     </row>
     <row r="3">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5239.512674331665</v>
+        <v>5.239</v>
       </c>
       <c r="C5" t="n">
-        <v>5166.508369445801</v>
+        <v>5.167</v>
       </c>
       <c r="D5" t="n">
-        <v>5469.296939849854</v>
+        <v>5.469</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/RSA/rsa.xlsx
+++ b/graphs/STM32F/RSA/rsa.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data_CCM code_FLASH_enc" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data_CCM code_FLASH_dec" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data_CCM code_CCM_enc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data_CCM code_CCM_dec" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="data_RAM code_FLASH_enc" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="data_RAM code_FLASH_dec" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="data_RAM code_CCM_enc" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="data_RAM code_CCM_dec" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data_CCM-code_FLASH_enc" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM-code_FLASH_dec" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_CCM-code_CCM_enc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_CCM-code_CCM_dec" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_RAM-code_FLASH_enc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="data_RAM-code_FLASH_dec" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="data_RAM-code_CCM_enc" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="data_RAM-code_CCM_dec" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
